--- a/KhibraWeb/config/TestData.xlsx
+++ b/KhibraWeb/config/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/eclipse-workspace/KhibraWeb/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/git/KhibraWeb/KhibraWeb/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E22D7F4-9982-4D45-9FED-C5664025C635}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C5B844-73D6-3746-AE63-2204F68605F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1400" windowWidth="26760" windowHeight="16600" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4720" yWindow="1400" windowWidth="26760" windowHeight="16600" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="7" r:id="rId1"/>
@@ -20,13 +20,9 @@
     <sheet name="Before Tests" sheetId="26" r:id="rId5"/>
     <sheet name="Students" sheetId="20" r:id="rId6"/>
     <sheet name="Jobs" sheetId="24" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="25" r:id="rId8"/>
-    <sheet name="University" sheetId="27" r:id="rId9"/>
-    <sheet name="Employer" sheetId="28" r:id="rId10"/>
+    <sheet name="University" sheetId="27" r:id="rId8"/>
+    <sheet name="Employer" sheetId="28" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet3!$I$1:$K$64</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="195">
   <si>
     <t xml:space="preserve">Details </t>
   </si>
@@ -147,9 +143,6 @@
     <t>SignUp Confirm Password</t>
   </si>
   <si>
-    <t>Badmus@gmail.com</t>
-  </si>
-  <si>
     <t>Admin Username</t>
   </si>
   <si>
@@ -183,201 +176,6 @@
     <t>akinade123@</t>
   </si>
   <si>
-    <t>Employer AddNewJob</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>UniversityDashboardMenuDropdown</t>
-  </si>
-  <si>
-    <t>Employer UploadEmployerPhotos</t>
-  </si>
-  <si>
-    <t>Students JobSearchByTitle</t>
-  </si>
-  <si>
-    <t>ChangeEmployerLogo</t>
-  </si>
-  <si>
-    <t>Employer TalentHomePage</t>
-  </si>
-  <si>
-    <t>Students StudentSignUpwithCID</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>ChageUniversityLogo</t>
-  </si>
-  <si>
-    <t>UpdateUniSocialMediaProfile</t>
-  </si>
-  <si>
-    <t>EmployerTalentMenuDropDown</t>
-  </si>
-  <si>
-    <t>UniversityStudentsMenuDropdown</t>
-  </si>
-  <si>
-    <t>Students DeleteStudentProfilePicture</t>
-  </si>
-  <si>
-    <t>Students ApplicationsPage</t>
-  </si>
-  <si>
-    <t>Employer ProposePosition</t>
-  </si>
-  <si>
-    <t>University UniSearchStudentByID</t>
-  </si>
-  <si>
-    <t>Students InvalidJobSearch</t>
-  </si>
-  <si>
-    <t>Students ChangeStudentProfilePicture</t>
-  </si>
-  <si>
-    <t>Students JobsHomepage</t>
-  </si>
-  <si>
-    <t>Employer SearchCandidateByUniqueID</t>
-  </si>
-  <si>
-    <t>Employer SearchTalentByName</t>
-  </si>
-  <si>
-    <t>Employer Dashboard</t>
-  </si>
-  <si>
-    <t>University StudentsHomepage</t>
-  </si>
-  <si>
-    <t>Students ApplyJobNoCV</t>
-  </si>
-  <si>
-    <t>InvalidLogin</t>
-  </si>
-  <si>
-    <t>Employer SearchCandidateByName</t>
-  </si>
-  <si>
-    <t>Employer SearchTalentByEverything</t>
-  </si>
-  <si>
-    <t>University UniSearchStudentByEverything</t>
-  </si>
-  <si>
-    <t>Employer JobsHomepage</t>
-  </si>
-  <si>
-    <t>Employer AddEmployerLocation</t>
-  </si>
-  <si>
-    <t>Employer SearchClosedJobs</t>
-  </si>
-  <si>
-    <t>Students EmptyJobDashboard</t>
-  </si>
-  <si>
-    <t>University UpdateUniAboutUsProfile</t>
-  </si>
-  <si>
-    <t>UniversityAboutPage</t>
-  </si>
-  <si>
-    <t>Employer SearchShortlistedByName</t>
-  </si>
-  <si>
-    <t>Students ViewJobApplicationDetails</t>
-  </si>
-  <si>
-    <t>Employer UpdateAboutUsProfile</t>
-  </si>
-  <si>
-    <t>Students CreateCV</t>
-  </si>
-  <si>
-    <t>UniversiyProfilePAge</t>
-  </si>
-  <si>
-    <t>Employer EditJob</t>
-  </si>
-  <si>
-    <t>Employer SearchOpenJobs</t>
-  </si>
-  <si>
-    <t>LoginPageElements</t>
-  </si>
-  <si>
-    <t>EmpProfileDropdownMenu</t>
-  </si>
-  <si>
-    <t>University ViewStudentProfie</t>
-  </si>
-  <si>
-    <t>Employer EmployerDashboardMenuDropDown</t>
-  </si>
-  <si>
-    <t>InvalidSignup</t>
-  </si>
-  <si>
-    <t>Employer SearchTalentByUniqueID</t>
-  </si>
-  <si>
-    <t>Students MyProfile</t>
-  </si>
-  <si>
-    <t>University Dashboard</t>
-  </si>
-  <si>
-    <t>UniversityProfileMenuDropdown</t>
-  </si>
-  <si>
-    <t>Employer ShortlistPosition</t>
-  </si>
-  <si>
-    <t>Employer CloseJob</t>
-  </si>
-  <si>
-    <t>Students ApplyJob</t>
-  </si>
-  <si>
-    <t>EmployerJobsMenuDropDown</t>
-  </si>
-  <si>
-    <t>University SearchStudentByName</t>
-  </si>
-  <si>
-    <t>Employer EditEmployerPhotos</t>
-  </si>
-  <si>
-    <t>SignUpPageElements</t>
-  </si>
-  <si>
-    <t>Employer SearchShortlistedByEverything</t>
-  </si>
-  <si>
-    <t>StudentAboutPage</t>
-  </si>
-  <si>
-    <t>Students Logout</t>
-  </si>
-  <si>
-    <t>Employer UpdateSocialMediaProfile</t>
-  </si>
-  <si>
-    <t>Students Sign up</t>
-  </si>
-  <si>
-    <t>Students JobSearchByCity</t>
-  </si>
-  <si>
-    <t>Tests</t>
-  </si>
-  <si>
     <t>DEV URL</t>
   </si>
   <si>
@@ -408,12 +206,6 @@
     <t>//Images/StudentPhoto.png</t>
   </si>
   <si>
-    <t>Job to Apply</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>Invalid Job Title</t>
   </si>
   <si>
@@ -468,9 +260,6 @@
     <t>Civil email password</t>
   </si>
   <si>
-    <t>a@gail.com</t>
-  </si>
-  <si>
     <t>Student ID Number</t>
   </si>
   <si>
@@ -786,9 +575,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Student</t>
-  </si>
-  <si>
     <t xml:space="preserve">About US Description </t>
   </si>
   <si>
@@ -807,9 +593,6 @@
     <t xml:space="preserve">Employee to Propose Position </t>
   </si>
   <si>
-    <t>HGVG</t>
-  </si>
-  <si>
     <t>Open Job Title  to be Searched</t>
   </si>
   <si>
@@ -817,13 +600,40 @@
   </si>
   <si>
     <t>Sharptester</t>
+  </si>
+  <si>
+    <t>Badmus1@gmail.com</t>
+  </si>
+  <si>
+    <t>a1@gail.com</t>
+  </si>
+  <si>
+    <t>yinskay007@yahoo.com</t>
+  </si>
+  <si>
+    <t>Singup Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employer Sheet - Empployee to propose and Shortlist </t>
+  </si>
+  <si>
+    <t>Wet</t>
+  </si>
+  <si>
+    <t>llll</t>
+  </si>
+  <si>
+    <t>Student Job to Apply</t>
+  </si>
+  <si>
+    <t>Singer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,12 +648,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF212529"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -873,15 +677,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -905,6 +707,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1190,7 +995,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1216,10 +1021,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1227,10 +1032,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -1241,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>31</v>
@@ -1249,10 +1054,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>41</v>
@@ -1269,391 +1074,6 @@
     <hyperlink ref="B5" r:id="rId2" xr:uid="{7FCD2176-21A6-9547-98DB-77187232C81A}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{CC1902AE-CE85-A843-9356-7499B990D90D}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B52A2B0-C354-904C-8F20-4044151A34A9}">
-  <dimension ref="A1:C35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="8">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="8">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="8">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="8">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="8">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="8">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C23" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C24" s="8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C25" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C26" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C27" s="8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C28" s="8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>251</v>
-      </c>
-      <c r="B29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C30" s="8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C32" s="8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="11"/>
-      <c r="C33" s="8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="8">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="8">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1719,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1809,7 +1229,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -1820,7 +1240,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -1831,10 +1251,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>91</v>
@@ -1842,10 +1262,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>101</v>
@@ -1853,7 +1273,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -1864,7 +1284,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1875,10 +1295,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D14">
         <v>131</v>
@@ -1886,10 +1306,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>141</v>
@@ -1897,10 +1317,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="D16">
         <v>151</v>
@@ -1908,10 +1328,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="D17">
         <v>161</v>
@@ -1946,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262720EA-5DF2-064E-BBC0-B6F4B0E49A55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1992,10 +1412,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="D4">
         <v>31</v>
@@ -2047,10 +1467,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="D9">
         <v>81</v>
@@ -2058,10 +1478,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>91</v>
@@ -2069,10 +1489,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D11">
         <v>101</v>
@@ -2080,7 +1500,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -2091,10 +1511,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <v>121</v>
@@ -2102,10 +1522,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>131</v>
@@ -2113,10 +1533,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>141</v>
@@ -2124,10 +1544,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>151</v>
@@ -2135,10 +1555,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="D17">
         <v>161</v>
@@ -2146,10 +1566,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="D18">
         <v>171</v>
@@ -2157,7 +1577,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
@@ -2168,16 +1588,22 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="D20">
         <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D21">
         <v>20</v>
       </c>
@@ -2199,7 +1625,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -2218,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940A6CE5-A8E2-F843-BACC-B748C69ADB04}">
-  <dimension ref="B1:B2"/>
+  <dimension ref="B1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2231,12 +1657,17 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>144</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2268,10 +1699,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2279,10 +1710,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="C3">
         <v>21</v>
@@ -2353,7 +1784,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2372,10 +1803,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2383,10 +1814,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>21</v>
@@ -2394,10 +1825,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>31</v>
@@ -2459,1045 +1890,712 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F4762B-01DC-8243-8FC5-E95ABF840D06}">
-  <dimension ref="I1:K64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6845A69-C50C-F84F-A7A3-F8D6A1433EE3}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J22" sqref="J1:J1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="58.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="43.5" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="J1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I2" s="6">
-        <v>8</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I3" s="6">
-        <v>5</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I4" s="6">
+      <c r="C15" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="11"/>
+      <c r="C26" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="11"/>
+      <c r="C27" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="6">
         <v>29</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="J5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I6" s="6">
-        <v>51</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I7" s="6">
-        <v>21</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I8" s="6">
-        <v>56</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I9" s="6">
-        <v>39</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I10" s="6">
-        <v>44</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I11" s="6">
-        <v>28</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I12" s="6">
-        <v>14</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I13" s="6">
-        <v>25</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I14" s="6">
-        <v>19</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I15" s="6">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="6">
         <v>30</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I16" s="6">
-        <v>40</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I17" s="6">
-        <v>58</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I18" s="6">
-        <v>34</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I19" s="6">
-        <v>26</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I20" s="6">
-        <v>53</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I21" s="6">
-        <v>20</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I22" s="6">
-        <v>46</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I23" s="6">
-        <v>50</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I24" s="6">
-        <v>6</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I25" s="6">
-        <v>36</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I26" s="6">
-        <v>61</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I27" s="6">
-        <v>3</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I28" s="6">
-        <v>54</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I29" s="6">
-        <v>10</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I30" s="6">
-        <v>42</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I31" s="6">
-        <v>24</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I32" s="6">
-        <v>45</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I33" s="6">
-        <v>41</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I34" s="6">
-        <v>57</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I35" s="6">
-        <v>59</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I36" s="6">
-        <v>13</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I37" s="6">
-        <v>52</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I38" s="6">
-        <v>23</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I39" s="6">
-        <v>17</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I40" s="6">
-        <v>37</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I41" s="6">
-        <v>12</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I42" s="6">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="6">
         <v>31</v>
       </c>
-      <c r="J42" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I43" s="6">
-        <v>16</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I44" s="6">
-        <v>63</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I45" s="6">
-        <v>4</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I46" s="6">
-        <v>18</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I47" s="6">
-        <v>60</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I48" s="6">
-        <v>47</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I49" s="6">
-        <v>62</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I50" s="6">
-        <v>7</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I51" s="6">
-        <v>35</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I52" s="6">
-        <v>48</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I53" s="6">
-        <v>55</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I54" s="6">
-        <v>22</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I55" s="6">
-        <v>27</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I56" s="6">
-        <v>15</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I57" s="6">
-        <v>32</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I58" s="6">
-        <v>43</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I59" s="6">
-        <v>33</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I60" s="6">
-        <v>2</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I61" s="6">
-        <v>49</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I62" s="6">
-        <v>11</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I63" s="6">
-        <v>38</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="9:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="I64" s="6">
-        <v>9</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:K64" xr:uid="{15DC7D9D-2D15-8244-8A48-4B552D74D677}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:K64">
-      <sortCondition ref="J1:J64"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6845A69-C50C-F84F-A7A3-F8D6A1433EE3}">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B52A2B0-C354-904C-8F20-4044151A34A9}">
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G9" activeCellId="1" sqref="C33 G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="43.5" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="8"/>
+    <col min="1" max="1" width="33.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>150</v>
+      <c r="A2" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="B12" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="8">
+      <c r="B13" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="8">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="8">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="8">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="8">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="8">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="8">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="8">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="8">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
-      <c r="C26" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
-      <c r="C27" s="8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="8">
-        <v>31</v>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="6">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/KhibraWeb/config/TestData.xlsx
+++ b/KhibraWeb/config/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/git/KhibraWeb/KhibraWeb/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C5B844-73D6-3746-AE63-2204F68605F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E725570B-7622-AE47-9CF8-8B344E43D170}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="1400" windowWidth="26760" windowHeight="16600" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="1240" windowWidth="26760" windowHeight="16600" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="197">
   <si>
     <t xml:space="preserve">Details </t>
   </si>
@@ -188,445 +188,451 @@
     <t>http://khibradevtmg.com</t>
   </si>
   <si>
+    <t xml:space="preserve">http://alpha.khibradevtmg.com/ </t>
+  </si>
+  <si>
+    <t>https://app.getkhibra.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Email No CV </t>
+  </si>
+  <si>
+    <t>New Email NO CV Password</t>
+  </si>
+  <si>
+    <t>//Images/StudentPhoto.png</t>
+  </si>
+  <si>
+    <t>Invalid Job Title</t>
+  </si>
+  <si>
+    <t>fghjkl</t>
+  </si>
+  <si>
+    <t>Hawali</t>
+  </si>
+  <si>
+    <t>Sign In Password (student with CV )</t>
+  </si>
+  <si>
+    <t>Sign In Username (student with CV)</t>
+  </si>
+  <si>
+    <t>University with Civil ID</t>
+  </si>
+  <si>
+    <t>SignUp Middle name</t>
+  </si>
+  <si>
+    <t>SignUp Date of Birth</t>
+  </si>
+  <si>
+    <t>Kunle</t>
+  </si>
+  <si>
+    <t>02/02/2020</t>
+  </si>
+  <si>
+    <t>291050200388</t>
+  </si>
+  <si>
+    <t>GUST</t>
+  </si>
+  <si>
+    <t>Wrong Civil</t>
+  </si>
+  <si>
+    <t>Corrrect Civil ID</t>
+  </si>
+  <si>
+    <t>545678</t>
+  </si>
+  <si>
+    <t>Civil Email address</t>
+  </si>
+  <si>
+    <t>Civil email password</t>
+  </si>
+  <si>
+    <t>Student ID Number</t>
+  </si>
+  <si>
+    <t>0801223</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Enter Job searches  in Jobs TABs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the new sign up emails , also delete existing cid in student table for sign up </t>
+  </si>
+  <si>
+    <t>University Email Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Password </t>
+  </si>
+  <si>
+    <t>tamires+uni1@thetakenseat.com</t>
+  </si>
+  <si>
+    <t>//Images/UniversityLogo.png</t>
+  </si>
+  <si>
+    <t>University Logo Path</t>
+  </si>
+  <si>
+    <t>Student Profile Photo Path</t>
+  </si>
+  <si>
+    <t>Search Min GPA</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Unique ID</t>
+  </si>
+  <si>
+    <t>Wrong Unique ID</t>
+  </si>
+  <si>
+    <t>ertyvxjhdsd</t>
+  </si>
+  <si>
+    <t>hsOA</t>
+  </si>
+  <si>
+    <t>Wrong Min GPA</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>Wrong Student Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct Student Name </t>
+  </si>
+  <si>
+    <t>rtyuiopo</t>
+  </si>
+  <si>
+    <t>Silva</t>
+  </si>
+  <si>
+    <t>Murad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About Us </t>
+  </si>
+  <si>
+    <t>This University is the best in the World</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>https://www.university.com</t>
+  </si>
+  <si>
+    <t>Facebook URL</t>
+  </si>
+  <si>
+    <t>Instagram URL</t>
+  </si>
+  <si>
+    <t>LinkedIN URL</t>
+  </si>
+  <si>
+    <t>Twitter URL</t>
+  </si>
+  <si>
+    <t>YouTube URL</t>
+  </si>
+  <si>
+    <t>www.facebook.com</t>
+  </si>
+  <si>
+    <t>www.instagram.com</t>
+  </si>
+  <si>
+    <t>www.linkedin.com</t>
+  </si>
+  <si>
+    <t>www.twitter.com</t>
+  </si>
+  <si>
+    <t>www.youtube.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Title </t>
+  </si>
+  <si>
+    <t>Event End Date</t>
+  </si>
+  <si>
+    <t>Event Start Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Employers 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Employers 2 </t>
+  </si>
+  <si>
+    <t>Event Message</t>
+  </si>
+  <si>
+    <t>Event Attachement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google </t>
+  </si>
+  <si>
+    <t>Tamires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This event will take place online Via Teams by Microsoft. You will be tested after the trainning and make sure you have a computer system and writing materials ready </t>
+  </si>
+  <si>
+    <t>22/06/2021</t>
+  </si>
+  <si>
+    <t>25/06/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Event Messages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This event will take place online Via ZOOM. You will be tested after the trainning and make sure you have aid your trainning fees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Event Title </t>
+  </si>
+  <si>
+    <t>Defence Trainings</t>
+  </si>
+  <si>
+    <t>Alayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search  Event Title Name </t>
+  </si>
+  <si>
+    <t>Employer Email address</t>
+  </si>
+  <si>
+    <t>Employer Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location Title </t>
+  </si>
+  <si>
+    <t>Location Address</t>
+  </si>
+  <si>
+    <t>Location Area</t>
+  </si>
+  <si>
+    <t>Location Country</t>
+  </si>
+  <si>
+    <t>Location City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Branch </t>
+  </si>
+  <si>
+    <t>10, Adams Close, Island Road</t>
+  </si>
+  <si>
+    <t>Adhen</t>
+  </si>
+  <si>
+    <t>Kuwai</t>
+  </si>
+  <si>
+    <t>Doha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Location Title </t>
+  </si>
+  <si>
+    <t>Branch Office</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Job Expiry Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR Analyst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">About Job </t>
+  </si>
+  <si>
+    <t>This Job is an experience Position and must be a person based in Kuwait</t>
+  </si>
+  <si>
+    <t>Employer Logo Location</t>
+  </si>
+  <si>
+    <t>//Images/comp.png</t>
+  </si>
+  <si>
+    <t>Open Jobs to be Closed</t>
+  </si>
+  <si>
+    <t>khibra-emp111@emp1.com</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>11223344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Job Title </t>
+  </si>
+  <si>
+    <t>Lead Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Candiates by Name </t>
+  </si>
+  <si>
+    <t>Search Candiates by Wrong Name</t>
+  </si>
+  <si>
+    <t>ghijlkjdjksj</t>
+  </si>
+  <si>
+    <t>Search Candiates by ID</t>
+  </si>
+  <si>
+    <t>7hYK</t>
+  </si>
+  <si>
+    <t>jhdkjsl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Closed Jobs </t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>Search By Min GPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Candidates by Name </t>
+  </si>
+  <si>
+    <t>Search Candidates by Wrong Name</t>
+  </si>
+  <si>
+    <t>fdfdddc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Talent By Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Talent By Wrong Name </t>
+  </si>
+  <si>
+    <t>ghjlkd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Talent By Unique ID </t>
+  </si>
+  <si>
+    <t>Search Candidatesby Wrong ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Talent By Wrong Unique ID </t>
+  </si>
+  <si>
+    <t>gjhkelk</t>
+  </si>
+  <si>
+    <t>cTwI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee to Shortlist </t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About US Description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Company finds the best talents .Google LLC is an American multinational technology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo Title </t>
+  </si>
+  <si>
+    <t>New Branch</t>
+  </si>
+  <si>
+    <t>Employee Photo Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee to Propose Position </t>
+  </si>
+  <si>
+    <t>Open Job Title  to be Searched</t>
+  </si>
+  <si>
+    <t>Event Title to be Searched</t>
+  </si>
+  <si>
+    <t>Sharptester</t>
+  </si>
+  <si>
+    <t>Badmus1@gmail.com</t>
+  </si>
+  <si>
+    <t>a1@gail.com</t>
+  </si>
+  <si>
+    <t>Singup Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employer Sheet - Empployee to propose and Shortlist </t>
+  </si>
+  <si>
+    <t>Wet</t>
+  </si>
+  <si>
+    <t>llll</t>
+  </si>
+  <si>
+    <t>Student Job to Apply</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>ALPHA</t>
   </si>
   <si>
-    <t xml:space="preserve">http://alpha.khibradevtmg.com/ </t>
-  </si>
-  <si>
-    <t>https://app.getkhibra.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Email No CV </t>
-  </si>
-  <si>
-    <t>New Email NO CV Password</t>
-  </si>
-  <si>
-    <t>//Images/StudentPhoto.png</t>
-  </si>
-  <si>
-    <t>Invalid Job Title</t>
-  </si>
-  <si>
-    <t>fghjkl</t>
-  </si>
-  <si>
-    <t>Valdi Job City Search</t>
-  </si>
-  <si>
-    <t>Hawali</t>
-  </si>
-  <si>
-    <t>Sign In Password (student with CV )</t>
-  </si>
-  <si>
-    <t>Sign In Username (student with CV)</t>
-  </si>
-  <si>
-    <t>University with Civil ID</t>
-  </si>
-  <si>
-    <t>SignUp Middle name</t>
-  </si>
-  <si>
-    <t>SignUp Date of Birth</t>
-  </si>
-  <si>
-    <t>Kunle</t>
-  </si>
-  <si>
-    <t>02/02/2020</t>
-  </si>
-  <si>
-    <t>291050200388</t>
-  </si>
-  <si>
-    <t>GUST</t>
-  </si>
-  <si>
-    <t>Wrong Civil</t>
-  </si>
-  <si>
-    <t>Corrrect Civil ID</t>
-  </si>
-  <si>
-    <t>545678</t>
-  </si>
-  <si>
-    <t>Civil Email address</t>
-  </si>
-  <si>
-    <t>Civil email password</t>
-  </si>
-  <si>
-    <t>Student ID Number</t>
-  </si>
-  <si>
-    <t>0801223</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Enter Job searches  in Jobs TABs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the new sign up emails , also delete existing cid in student table for sign up </t>
-  </si>
-  <si>
-    <t>University Email Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Password </t>
-  </si>
-  <si>
-    <t>tamires+uni1@thetakenseat.com</t>
-  </si>
-  <si>
-    <t>//Images/UniversityLogo.png</t>
-  </si>
-  <si>
-    <t>University Logo Path</t>
-  </si>
-  <si>
-    <t>Student Profile Photo Path</t>
-  </si>
-  <si>
-    <t>Search Min GPA</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Unique ID</t>
-  </si>
-  <si>
-    <t>Wrong Unique ID</t>
-  </si>
-  <si>
-    <t>ertyvxjhdsd</t>
-  </si>
-  <si>
-    <t>hsOA</t>
-  </si>
-  <si>
-    <t>Wrong Min GPA</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>Wrong Student Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct Student Name </t>
-  </si>
-  <si>
-    <t>rtyuiopo</t>
-  </si>
-  <si>
-    <t>Silva</t>
-  </si>
-  <si>
-    <t>Murad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About Us </t>
-  </si>
-  <si>
-    <t>This University is the best in the World</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>https://www.university.com</t>
-  </si>
-  <si>
-    <t>Facebook URL</t>
-  </si>
-  <si>
-    <t>Instagram URL</t>
-  </si>
-  <si>
-    <t>LinkedIN URL</t>
-  </si>
-  <si>
-    <t>Twitter URL</t>
-  </si>
-  <si>
-    <t>YouTube URL</t>
-  </si>
-  <si>
-    <t>www.facebook.com</t>
-  </si>
-  <si>
-    <t>www.instagram.com</t>
-  </si>
-  <si>
-    <t>www.linkedin.com</t>
-  </si>
-  <si>
-    <t>www.twitter.com</t>
-  </si>
-  <si>
-    <t>www.youtube.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Title </t>
-  </si>
-  <si>
-    <t>Event End Date</t>
-  </si>
-  <si>
-    <t>Event Start Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Employers 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Employers 2 </t>
-  </si>
-  <si>
-    <t>Event Message</t>
-  </si>
-  <si>
-    <t>Event Attachement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google </t>
-  </si>
-  <si>
-    <t>Tamires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This event will take place online Via Teams by Microsoft. You will be tested after the trainning and make sure you have a computer system and writing materials ready </t>
-  </si>
-  <si>
-    <t>22/06/2021</t>
-  </si>
-  <si>
-    <t>25/06/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updated Event Messages </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This event will take place online Via ZOOM. You will be tested after the trainning and make sure you have aid your trainning fees </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updated Event Title </t>
-  </si>
-  <si>
-    <t>Defence Trainings</t>
-  </si>
-  <si>
-    <t>Alayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search  Event Title Name </t>
-  </si>
-  <si>
-    <t>Employer Email address</t>
-  </si>
-  <si>
-    <t>Employer Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location Title </t>
-  </si>
-  <si>
-    <t>Location Address</t>
-  </si>
-  <si>
-    <t>Location Area</t>
-  </si>
-  <si>
-    <t>Location Country</t>
-  </si>
-  <si>
-    <t>Location City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market Branch </t>
-  </si>
-  <si>
-    <t>10, Adams Close, Island Road</t>
-  </si>
-  <si>
-    <t>Adhen</t>
-  </si>
-  <si>
-    <t>Kuwai</t>
-  </si>
-  <si>
-    <t>Doha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updated Location Title </t>
-  </si>
-  <si>
-    <t>Branch Office</t>
-  </si>
-  <si>
-    <t>Job Title</t>
-  </si>
-  <si>
-    <t>Job Expiry Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR Analyst </t>
-  </si>
-  <si>
-    <t xml:space="preserve">About Job </t>
-  </si>
-  <si>
-    <t>This Job is an experience Position and must be a person based in Kuwait</t>
-  </si>
-  <si>
-    <t>Employer Logo Location</t>
-  </si>
-  <si>
-    <t>//Images/comp.png</t>
-  </si>
-  <si>
-    <t>Open Jobs to be Closed</t>
-  </si>
-  <si>
-    <t>khibra-emp111@emp1.com</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>11223344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updated Job Title </t>
-  </si>
-  <si>
-    <t>Lead Tester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Candiates by Name </t>
-  </si>
-  <si>
-    <t>Search Candiates by Wrong Name</t>
-  </si>
-  <si>
-    <t>ghijlkjdjksj</t>
-  </si>
-  <si>
-    <t>Search Candiates by ID</t>
-  </si>
-  <si>
-    <t>7hYK</t>
-  </si>
-  <si>
-    <t>jhdkjsl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Closed Jobs </t>
-  </si>
-  <si>
-    <t>Soccer</t>
-  </si>
-  <si>
-    <t>Search By Min GPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Candidates by Name </t>
-  </si>
-  <si>
-    <t>Search Candidates by Wrong Name</t>
-  </si>
-  <si>
-    <t>fdfdddc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Talent By Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Talent By Wrong Name </t>
-  </si>
-  <si>
-    <t>ghjlkd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Talent By Unique ID </t>
-  </si>
-  <si>
-    <t>Search Candidatesby Wrong ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Talent By Wrong Unique ID </t>
-  </si>
-  <si>
-    <t>gjhkelk</t>
-  </si>
-  <si>
-    <t>cTwI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee to Shortlist </t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About US Description </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our Company finds the best talents .Google LLC is an American multinational technology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photo Title </t>
-  </si>
-  <si>
-    <t>New Branch</t>
-  </si>
-  <si>
-    <t>Employee Photo Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee to Propose Position </t>
-  </si>
-  <si>
-    <t>Open Job Title  to be Searched</t>
-  </si>
-  <si>
-    <t>Event Title to be Searched</t>
-  </si>
-  <si>
-    <t>Sharptester</t>
-  </si>
-  <si>
-    <t>Badmus1@gmail.com</t>
-  </si>
-  <si>
-    <t>a1@gail.com</t>
-  </si>
-  <si>
-    <t>yinskay007@yahoo.com</t>
-  </si>
-  <si>
-    <t>Singup Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employer Sheet - Empployee to propose and Shortlist </t>
-  </si>
-  <si>
-    <t>Wet</t>
-  </si>
-  <si>
-    <t>llll</t>
-  </si>
-  <si>
-    <t>Student Job to Apply</t>
-  </si>
-  <si>
-    <t>Singer</t>
+    <t>yinkskay007@yahoo.com</t>
+  </si>
+  <si>
+    <t>Valid Job City Search</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>nocv@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -992,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -1035,7 +1041,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -1046,7 +1052,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>31</v>
@@ -1066,6 +1072,11 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6">
         <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1151,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1229,7 +1240,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -1240,7 +1251,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -1273,10 +1284,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="D12">
         <v>111</v>
@@ -1284,7 +1295,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1295,10 +1306,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D14">
         <v>131</v>
@@ -1306,7 +1317,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -1317,10 +1328,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D16">
         <v>151</v>
@@ -1328,10 +1339,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D17">
         <v>161</v>
@@ -1367,7 +1378,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1415,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4">
         <v>31</v>
@@ -1470,7 +1481,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D9">
         <v>81</v>
@@ -1511,10 +1522,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>121</v>
@@ -1522,10 +1533,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
       </c>
       <c r="D14">
         <v>131</v>
@@ -1533,10 +1544,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D15">
         <v>141</v>
@@ -1544,10 +1555,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <v>151</v>
@@ -1555,10 +1566,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D17">
         <v>161</v>
@@ -1566,10 +1577,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D18">
         <v>171</v>
@@ -1577,7 +1588,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
@@ -1588,10 +1599,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20">
         <v>191</v>
@@ -1599,7 +1610,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
@@ -1625,7 +1636,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1647,7 +1658,7 @@
   <dimension ref="B1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1657,17 +1668,17 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1699,10 +1710,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1710,10 +1721,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3">
         <v>21</v>
@@ -1803,10 +1814,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1814,10 +1825,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C3">
         <v>21</v>
@@ -1825,10 +1836,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>31</v>
@@ -1914,10 +1925,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
@@ -1925,10 +1936,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="6">
         <v>21</v>
@@ -1936,10 +1947,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="6">
         <v>31</v>
@@ -1947,10 +1958,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="6">
         <v>41</v>
@@ -1958,10 +1969,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="6">
         <v>51</v>
@@ -1969,10 +1980,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="C7" s="6">
         <v>61</v>
@@ -1980,10 +1991,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="6">
         <v>71</v>
@@ -1991,10 +2002,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="6">
         <v>81</v>
@@ -2002,10 +2013,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10" s="6">
         <v>91</v>
@@ -2013,10 +2024,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="6">
         <v>101</v>
@@ -2024,10 +2035,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="6">
         <v>11</v>
@@ -2035,10 +2046,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="6">
         <v>12</v>
@@ -2046,10 +2057,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="6">
         <v>13</v>
@@ -2057,10 +2068,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="6">
         <v>14</v>
@@ -2068,10 +2079,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="6">
         <v>15</v>
@@ -2079,10 +2090,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C17" s="6">
         <v>16</v>
@@ -2090,10 +2101,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C18" s="6">
         <v>17</v>
@@ -2101,10 +2112,10 @@
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="6">
         <v>18</v>
@@ -2112,10 +2123,10 @@
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20" s="6">
         <v>19</v>
@@ -2123,10 +2134,10 @@
     </row>
     <row r="21" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="6">
         <v>20</v>
@@ -2134,10 +2145,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="6">
         <v>21</v>
@@ -2145,10 +2156,10 @@
     </row>
     <row r="23" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" s="6">
         <v>22</v>
@@ -2156,10 +2167,10 @@
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" s="6">
         <v>23</v>
@@ -2167,10 +2178,10 @@
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C25" s="6">
         <v>24</v>
@@ -2243,10 +2254,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
@@ -2254,10 +2265,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="6">
         <v>21</v>
@@ -2265,10 +2276,10 @@
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" s="6">
         <v>31</v>
@@ -2276,10 +2287,10 @@
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="6">
         <v>41</v>
@@ -2287,10 +2298,10 @@
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="6">
         <v>51</v>
@@ -2298,10 +2309,10 @@
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" s="6">
         <v>61</v>
@@ -2309,10 +2320,10 @@
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="C8" s="6">
         <v>71</v>
@@ -2320,10 +2331,10 @@
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9" s="6">
         <v>81</v>
@@ -2331,10 +2342,10 @@
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" s="6">
         <v>91</v>
@@ -2342,10 +2353,10 @@
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
@@ -2353,10 +2364,10 @@
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="C12" s="6">
         <v>11</v>
@@ -2364,10 +2375,10 @@
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="6">
         <v>12</v>
@@ -2375,10 +2386,10 @@
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="6">
         <v>13</v>
@@ -2386,10 +2397,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C15" s="6">
         <v>14</v>
@@ -2397,10 +2408,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16" s="6">
         <v>15</v>
@@ -2408,10 +2419,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C17" s="6">
         <v>16</v>
@@ -2419,10 +2430,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C18" s="6">
         <v>17</v>
@@ -2430,10 +2441,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="6">
         <v>18</v>
@@ -2441,10 +2452,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20" s="6">
         <v>19</v>
@@ -2452,10 +2463,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C21" s="6">
         <v>20</v>
@@ -2463,10 +2474,10 @@
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C22" s="6">
         <v>21</v>
@@ -2474,10 +2485,10 @@
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C23" s="6">
         <v>22</v>
@@ -2485,10 +2496,10 @@
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C24" s="6">
         <v>23</v>
@@ -2496,10 +2507,10 @@
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C25" s="6">
         <v>24</v>
@@ -2507,10 +2518,10 @@
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C26" s="6">
         <v>25</v>
@@ -2518,10 +2529,10 @@
     </row>
     <row r="27" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C27" s="6">
         <v>26</v>
@@ -2529,10 +2540,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C28" s="6">
         <v>27</v>
@@ -2540,10 +2551,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="6">
         <v>28</v>
@@ -2551,10 +2562,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C30" s="6">
         <v>29</v>
@@ -2562,10 +2573,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C31" s="6">
         <v>30</v>
@@ -2573,10 +2584,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C32" s="6">
         <v>31</v>
